--- a/stock_historical_data/1wk/MOSCHIP.BO.xlsx
+++ b/stock_historical_data/1wk/MOSCHIP.BO.xlsx
@@ -66045,7 +66045,9 @@
       <c r="Q1171" t="n">
         <v>0</v>
       </c>
-      <c r="R1171" t="inlineStr"/>
+      <c r="R1171" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MOSCHIP.BO.xlsx
+++ b/stock_historical_data/1wk/MOSCHIP.BO.xlsx
@@ -62583,7 +62583,9 @@
       <c r="P1172" t="n">
         <v>0</v>
       </c>
-      <c r="Q1172" t="inlineStr"/>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MOSCHIP.BO.xlsx
+++ b/stock_historical_data/1wk/MOSCHIP.BO.xlsx
@@ -66157,7 +66157,9 @@
       <c r="Q1173" t="n">
         <v>0</v>
       </c>
-      <c r="R1173" t="inlineStr"/>
+      <c r="R1173" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MOSCHIP.BO.xlsx
+++ b/stock_historical_data/1wk/MOSCHIP.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1173"/>
+  <dimension ref="A1:R1175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66161,6 +66161,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>207.0500030517578</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>320.7999877929688</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>203</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>281.1499938964844</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>281.1499938964844</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>51421417</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>280</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>326.7999877929688</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>258.8999938964844</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>276.2999877929688</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>276.2999877929688</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>22848779</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1175" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/MOSCHIP.BO.xlsx
+++ b/stock_historical_data/1wk/MOSCHIP.BO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1175"/>
+  <dimension ref="A1:R1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -66037,7 +66037,7 @@
         <v>22</v>
       </c>
       <c r="O1171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1171" t="n">
         <v>0</v>
@@ -66213,7 +66213,9 @@
       <c r="Q1174" t="n">
         <v>0</v>
       </c>
-      <c r="R1174" t="inlineStr"/>
+      <c r="R1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -66259,7 +66261,7 @@
         <v>26</v>
       </c>
       <c r="O1175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1175" t="n">
         <v>0</v>
@@ -66267,7 +66269,477 @@
       <c r="Q1175" t="n">
         <v>0</v>
       </c>
-      <c r="R1175" t="inlineStr"/>
+      <c r="R1175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>210.8000030517578</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>234.3500061035156</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>200</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>224.1999969482422</v>
+      </c>
+      <c r="F1176" t="inlineStr"/>
+      <c r="G1176" t="n">
+        <v>3243836</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>225.6999969482422</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>229.6999969482422</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>201.1999969482422</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>204.3500061035156</v>
+      </c>
+      <c r="F1177" t="inlineStr"/>
+      <c r="G1177" t="n">
+        <v>2836231</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1177" t="inlineStr"/>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>202</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>212.5500030517578</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>185.1999969482422</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>208.4499969482422</v>
+      </c>
+      <c r="F1178" t="inlineStr"/>
+      <c r="G1178" t="n">
+        <v>2044571</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>209.6999969482422</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>212</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>189.6000061035156</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>193.1499938964844</v>
+      </c>
+      <c r="F1179" t="inlineStr"/>
+      <c r="G1179" t="n">
+        <v>1947926</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>188.4499969482422</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>217</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>162.4499969482422</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>204.9499969482422</v>
+      </c>
+      <c r="F1180" t="inlineStr"/>
+      <c r="G1180" t="n">
+        <v>6812353</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>195</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>207.8999938964844</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>192.1499938964844</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>197.0500030517578</v>
+      </c>
+      <c r="F1181" t="inlineStr"/>
+      <c r="G1181" t="n">
+        <v>1572501</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>197</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>204.8000030517578</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>165.8999938964844</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>175.3500061035156</v>
+      </c>
+      <c r="F1182" t="inlineStr"/>
+      <c r="G1182" t="n">
+        <v>2505190</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>175.3000030517578</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>178.25</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>162.4499969482422</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>170.6499938964844</v>
+      </c>
+      <c r="F1183" t="inlineStr"/>
+      <c r="G1183" t="n">
+        <v>1481068</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>169.6499938964844</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>170.1999969482422</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>146.1999969482422</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>153.1000061035156</v>
+      </c>
+      <c r="F1184" t="inlineStr"/>
+      <c r="G1184" t="n">
+        <v>1522354</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1184" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/MOSCHIP.BO.xlsx
+++ b/stock_historical_data/1wk/MOSCHIP.BO.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1184"/>
+  <dimension ref="A1:R1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -66323,7 +66323,9 @@
       <c r="Q1176" t="n">
         <v>0</v>
       </c>
-      <c r="R1176" t="inlineStr"/>
+      <c r="R1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -66375,7 +66377,9 @@
       <c r="Q1177" t="n">
         <v>1</v>
       </c>
-      <c r="R1177" t="inlineStr"/>
+      <c r="R1177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1178">
       <c r="A1178" s="2" t="n">
@@ -66427,7 +66431,9 @@
       <c r="Q1178" t="n">
         <v>0</v>
       </c>
-      <c r="R1178" t="inlineStr"/>
+      <c r="R1178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
@@ -66479,7 +66485,9 @@
       <c r="Q1179" t="n">
         <v>0</v>
       </c>
-      <c r="R1179" t="inlineStr"/>
+      <c r="R1179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
@@ -66531,7 +66539,9 @@
       <c r="Q1180" t="n">
         <v>0</v>
       </c>
-      <c r="R1180" t="inlineStr"/>
+      <c r="R1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -66583,7 +66593,9 @@
       <c r="Q1181" t="n">
         <v>2</v>
       </c>
-      <c r="R1181" t="inlineStr"/>
+      <c r="R1181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
@@ -66635,7 +66647,9 @@
       <c r="Q1182" t="n">
         <v>0</v>
       </c>
-      <c r="R1182" t="inlineStr"/>
+      <c r="R1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -66687,7 +66701,9 @@
       <c r="Q1183" t="n">
         <v>0</v>
       </c>
-      <c r="R1183" t="inlineStr"/>
+      <c r="R1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -66739,7 +66755,217 @@
       <c r="Q1184" t="n">
         <v>0</v>
       </c>
-      <c r="R1184" t="inlineStr"/>
+      <c r="R1184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>154.0500030517578</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>172.1000061035156</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>136.0500030517578</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>168.6999969482422</v>
+      </c>
+      <c r="F1185" t="inlineStr"/>
+      <c r="G1185" t="n">
+        <v>3267062</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>170.8500061035156</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>172.3500061035156</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>150.0500030517578</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>150.8000030517578</v>
+      </c>
+      <c r="F1186" t="inlineStr"/>
+      <c r="G1186" t="n">
+        <v>1120682</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>151</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>164.3500061035156</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>142.8999938964844</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>162.75</v>
+      </c>
+      <c r="F1187" t="inlineStr"/>
+      <c r="G1187" t="n">
+        <v>2229571</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>165</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>169.1000061035156</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>145</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>146</v>
+      </c>
+      <c r="F1188" t="inlineStr"/>
+      <c r="G1188" t="n">
+        <v>2778677</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1188" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
